--- a/data/output/Pedido_Semana_06_13022026_mascotas_manufacturado.xlsx
+++ b/data/output/Pedido_Semana_06_13022026_mascotas_manufacturado.xlsx
@@ -678,7 +678,7 @@
         </is>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>2402040024</t>
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="6" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
       </c>
       <c r="O3" s="7" t="inlineStr"/>
       <c r="P3" s="3" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R3" s="2" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="U3" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -807,10 +807,10 @@
         <v>0</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>6.45</v>
+        <v>16.12</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.87</v>
+        <v>9.67</v>
       </c>
       <c r="O4" s="7" t="inlineStr">
         <is>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" hidden="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
           <t>2301010098</t>
@@ -888,10 +888,10 @@
         <v>0</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>10.55</v>
+        <v>0</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.33</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="inlineStr">
         <is>
@@ -899,10 +899,10 @@
         </is>
       </c>
       <c r="P5" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R5" s="2" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1290,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>0</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t>2301040035</t>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="M13" s="6" t="n">
-        <v>148.25</v>
+        <v>0</v>
       </c>
       <c r="N13" s="4" t="n">
-        <v>88.95</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="inlineStr">
         <is>
@@ -1547,10 +1547,10 @@
         </is>
       </c>
       <c r="P13" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R13" s="2" t="n">
         <v>0</v>
@@ -1562,10 +1562,10 @@
         <v>0</v>
       </c>
       <c r="U13" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" hidden="1">
       <c r="A14" s="2" t="inlineStr">
         <is>
           <t>2301040036</t>
@@ -1617,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>161.15</v>
+        <v>0</v>
       </c>
       <c r="N14" s="4" t="n">
-        <v>96.69</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="inlineStr">
         <is>
@@ -1628,10 +1628,10 @@
         </is>
       </c>
       <c r="P14" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q14" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R14" s="2" t="n">
         <v>0</v>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" hidden="1">
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="M16" s="6" t="n">
-        <v>33.8</v>
+        <v>16.9</v>
       </c>
       <c r="N16" s="4" t="n">
-        <v>20.28</v>
+        <v>10.14</v>
       </c>
       <c r="O16" s="7" t="inlineStr">
         <is>
@@ -1790,22 +1790,22 @@
         </is>
       </c>
       <c r="P16" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" hidden="1">
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="1">
       <c r="A18" s="2" t="inlineStr">
         <is>
           <t>2301040053</t>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">7KG      </t>
+          <t xml:space="preserve">3KG      </t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1919,10 +1919,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>70.53</v>
+        <v>36.02</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>28.21</v>
+        <v>14.41</v>
       </c>
       <c r="I18" s="5" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 39%</t>
+          <t>MANTENER</t>
         </is>
       </c>
       <c r="K18" s="3" t="n">
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>141.05</v>
+        <v>0</v>
       </c>
       <c r="N18" s="4" t="n">
-        <v>84.63</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="inlineStr">
         <is>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="P18" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q18" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>0</v>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="U18" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" hidden="1">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">3KG      </t>
+          <t xml:space="preserve">7KG      </t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -2000,10 +2000,10 @@
         <v>1</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>36.02</v>
+        <v>70.53</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>14.41</v>
+        <v>28.21</v>
       </c>
       <c r="I19" s="5" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>MANTENER</t>
+          <t>AUMENTAR 39%</t>
         </is>
       </c>
       <c r="K19" s="3" t="n">
@@ -2033,7 +2033,7 @@
         </is>
       </c>
       <c r="P19" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q19" s="3" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="1">
       <c r="A25" s="2" t="inlineStr">
         <is>
           <t>2301090002</t>
@@ -2508,10 +2508,10 @@
         <v>0</v>
       </c>
       <c r="M25" s="6" t="n">
-        <v>10.6</v>
+        <v>0</v>
       </c>
       <c r="N25" s="4" t="n">
-        <v>6.36</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="inlineStr">
         <is>
@@ -2519,10 +2519,10 @@
         </is>
       </c>
       <c r="P25" s="3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Q25" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R25" s="2" t="n">
         <v>0</v>
@@ -2534,10 +2534,10 @@
         <v>0</v>
       </c>
       <c r="U25" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" hidden="1">
       <c r="A26" s="2" t="inlineStr">
         <is>
           <t>2301090004</t>
@@ -2589,10 +2589,10 @@
         <v>0</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>10.55</v>
+        <v>0</v>
       </c>
       <c r="N26" s="4" t="n">
-        <v>6.33</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="inlineStr">
         <is>
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="P26" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q26" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R26" s="2" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>0</v>
       </c>
       <c r="U26" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" hidden="1">
       <c r="A27" s="2" t="inlineStr">
         <is>
           <t>2301090007</t>
@@ -2670,10 +2670,10 @@
         <v>0</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>10.55</v>
+        <v>0</v>
       </c>
       <c r="N27" s="4" t="n">
-        <v>6.33</v>
+        <v>0</v>
       </c>
       <c r="O27" s="7" t="inlineStr">
         <is>
@@ -2681,10 +2681,10 @@
         </is>
       </c>
       <c r="P27" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R27" s="2" t="n">
         <v>0</v>
@@ -2696,10 +2696,10 @@
         <v>0</v>
       </c>
       <c r="U27" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" hidden="1">
       <c r="A28" s="2" t="inlineStr">
         <is>
           <t>2301090138</t>
@@ -2751,10 +2751,10 @@
         <v>0</v>
       </c>
       <c r="M28" s="6" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="N28" s="4" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="inlineStr">
         <is>
@@ -2762,10 +2762,10 @@
         </is>
       </c>
       <c r="P28" s="3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q28" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R28" s="2" t="n">
         <v>0</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="1">
       <c r="A31" s="2" t="inlineStr">
         <is>
           <t>2401040005</t>
@@ -2994,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>58.75</v>
+        <v>0</v>
       </c>
       <c r="N31" s="4" t="n">
-        <v>35.25</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7" t="inlineStr">
         <is>
@@ -3005,10 +3005,10 @@
         </is>
       </c>
       <c r="P31" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q31" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R31" s="2" t="n">
         <v>0</v>
@@ -3020,10 +3020,10 @@
         <v>0</v>
       </c>
       <c r="U31" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" hidden="1">
       <c r="A32" s="2" t="inlineStr">
         <is>
           <t>2401040025</t>
@@ -3075,10 +3075,10 @@
         <v>0</v>
       </c>
       <c r="M32" s="6" t="n">
-        <v>88.05</v>
+        <v>0</v>
       </c>
       <c r="N32" s="4" t="n">
-        <v>52.83</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="inlineStr">
         <is>
@@ -3086,10 +3086,10 @@
         </is>
       </c>
       <c r="P32" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q32" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R32" s="2" t="n">
         <v>0</v>
@@ -3101,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3156,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="M33" s="6" t="n">
-        <v>258.68</v>
+        <v>172.45</v>
       </c>
       <c r="N33" s="4" t="n">
-        <v>155.21</v>
+        <v>103.47</v>
       </c>
       <c r="O33" s="7" t="inlineStr">
         <is>
@@ -3167,10 +3167,10 @@
         </is>
       </c>
       <c r="P33" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R33" s="2" t="n">
         <v>0</v>
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="U33" s="8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" hidden="1">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="1">
       <c r="A35" s="2" t="inlineStr">
         <is>
           <t>2301080083</t>
@@ -3315,13 +3315,13 @@
         <v>1</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="N35" s="4" t="n">
-        <v>3.12</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="inlineStr">
         <is>
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="P35" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q35" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R35" s="2" t="n">
         <v>0</v>
@@ -3344,10 +3344,10 @@
         <v>0</v>
       </c>
       <c r="U35" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" hidden="1">
       <c r="A36" s="2" t="inlineStr">
         <is>
           <t>2301090132</t>
@@ -3399,10 +3399,10 @@
         <v>0</v>
       </c>
       <c r="M36" s="6" t="n">
-        <v>11.4</v>
+        <v>0</v>
       </c>
       <c r="N36" s="4" t="n">
-        <v>6.84</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="inlineStr">
         <is>
@@ -3410,25 +3410,25 @@
         </is>
       </c>
       <c r="P36" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q36" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T36" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U36" s="8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" hidden="1">
       <c r="A37" s="2" t="inlineStr">
         <is>
           <t>2301090135</t>
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="M37" s="6" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="N37" s="4" t="n">
-        <v>3.12</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7" t="inlineStr">
         <is>
@@ -3491,25 +3491,25 @@
         </is>
       </c>
       <c r="P37" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q37" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T37" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U37" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" hidden="1">
       <c r="A38" s="2" t="inlineStr">
         <is>
           <t>2101010007</t>
@@ -3561,10 +3561,10 @@
         <v>0</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>16.1</v>
+        <v>0</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>9.66</v>
+        <v>0</v>
       </c>
       <c r="O38" s="7" t="inlineStr">
         <is>
@@ -3572,10 +3572,10 @@
         </is>
       </c>
       <c r="P38" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q38" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R38" s="2" t="n">
         <v>0</v>
@@ -3587,10 +3587,10 @@
         <v>0</v>
       </c>
       <c r="U38" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" hidden="1">
       <c r="A39" s="2" t="inlineStr">
         <is>
           <t>2101010011</t>
@@ -3642,10 +3642,10 @@
         <v>0</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>36.9</v>
+        <v>0</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>22.14</v>
+        <v>0</v>
       </c>
       <c r="O39" s="7" t="inlineStr">
         <is>
@@ -3653,10 +3653,10 @@
         </is>
       </c>
       <c r="P39" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q39" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R39" s="2" t="n">
         <v>0</v>
@@ -3668,7 +3668,7 @@
         <v>1</v>
       </c>
       <c r="U39" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3752,7 +3752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="1">
       <c r="A41" s="2" t="inlineStr">
         <is>
           <t>2201010006</t>
@@ -3801,13 +3801,13 @@
         <v>1</v>
       </c>
       <c r="L41" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" s="6" t="n">
-        <v>14.65</v>
+        <v>0</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>0</v>
       </c>
       <c r="O41" s="7" t="inlineStr">
         <is>
@@ -3815,10 +3815,10 @@
         </is>
       </c>
       <c r="P41" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q41" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R41" s="2" t="n">
         <v>0</v>
@@ -3830,10 +3830,10 @@
         <v>0</v>
       </c>
       <c r="U41" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" hidden="1">
       <c r="A42" s="2" t="inlineStr">
         <is>
           <t>2201010022</t>
@@ -3885,10 +3885,10 @@
         <v>0</v>
       </c>
       <c r="M42" s="6" t="n">
-        <v>23.1</v>
+        <v>0</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>13.86</v>
+        <v>0</v>
       </c>
       <c r="O42" s="7" t="inlineStr">
         <is>
@@ -3896,25 +3896,25 @@
         </is>
       </c>
       <c r="P42" s="3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="R42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="T42" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U42" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" hidden="1">
       <c r="A43" s="2" t="inlineStr">
         <is>
           <t>2201040024</t>
@@ -3966,10 +3966,10 @@
         <v>0</v>
       </c>
       <c r="M43" s="6" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O43" s="7" t="inlineStr">
         <is>
@@ -3977,10 +3977,10 @@
         </is>
       </c>
       <c r="P43" s="3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Q43" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R43" s="2" t="n">
         <v>0</v>
@@ -3992,10 +3992,10 @@
         <v>0</v>
       </c>
       <c r="U43" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" hidden="1">
       <c r="A44" s="2" t="inlineStr">
         <is>
           <t>2201040027</t>
@@ -4047,10 +4047,10 @@
         <v>0</v>
       </c>
       <c r="M44" s="6" t="n">
-        <v>111.6</v>
+        <v>0</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>66.95999999999999</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7" t="inlineStr">
         <is>
@@ -4058,10 +4058,10 @@
         </is>
       </c>
       <c r="P44" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q44" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R44" s="2" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>0</v>
       </c>
       <c r="U44" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" hidden="1">
       <c r="A45" s="2" t="inlineStr">
         <is>
           <t>2201050001</t>
@@ -4125,24 +4125,24 @@
         <v>1</v>
       </c>
       <c r="L45" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CUNIPIC ANIMALS DE COMPANYIA, SL                                                                                        </t>
+        </is>
+      </c>
+      <c r="P45" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="N45" s="4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O45" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CUNIPIC ANIMALS DE COMPANYIA, SL                                                                                        </t>
-        </is>
-      </c>
-      <c r="P45" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R45" s="2" t="n">
         <v>0</v>
@@ -4154,10 +4154,10 @@
         <v>0</v>
       </c>
       <c r="U45" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" hidden="1">
       <c r="A46" s="2" t="inlineStr">
         <is>
           <t>2201050002</t>
@@ -4209,10 +4209,10 @@
         <v>0</v>
       </c>
       <c r="M46" s="6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="O46" s="7" t="inlineStr">
         <is>
@@ -4220,10 +4220,10 @@
         </is>
       </c>
       <c r="P46" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q46" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R46" s="2" t="n">
         <v>0</v>
@@ -4235,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="U46" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -4319,7 +4319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="1">
       <c r="A48" s="2" t="inlineStr">
         <is>
           <t>2201050014</t>
@@ -4368,13 +4368,13 @@
         <v>1</v>
       </c>
       <c r="L48" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" s="6" t="n">
-        <v>9.85</v>
+        <v>0</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
       <c r="O48" s="7" t="inlineStr">
         <is>
@@ -4382,10 +4382,10 @@
         </is>
       </c>
       <c r="P48" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q48" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R48" s="2" t="n">
         <v>0</v>
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="U48" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -4452,10 +4452,10 @@
         <v>0</v>
       </c>
       <c r="M49" s="6" t="n">
-        <v>7.8</v>
+        <v>3.9</v>
       </c>
       <c r="N49" s="4" t="n">
-        <v>4.68</v>
+        <v>2.34</v>
       </c>
       <c r="O49" s="7" t="inlineStr">
         <is>
@@ -4463,10 +4463,10 @@
         </is>
       </c>
       <c r="P49" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R49" s="2" t="n">
         <v>0</v>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="U49" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -4773,7 +4773,7 @@
         <v>2</v>
       </c>
       <c r="L53" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" s="6" t="n">
         <v>93.09999999999999</v>
@@ -4805,7 +4805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="1">
       <c r="A54" s="2" t="inlineStr">
         <is>
           <t>2301090078</t>
@@ -4857,10 +4857,10 @@
         <v>0</v>
       </c>
       <c r="M54" s="6" t="n">
-        <v>19.85</v>
+        <v>0</v>
       </c>
       <c r="N54" s="4" t="n">
-        <v>11.91</v>
+        <v>0</v>
       </c>
       <c r="O54" s="7" t="inlineStr">
         <is>
@@ -4868,10 +4868,10 @@
         </is>
       </c>
       <c r="P54" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q54" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R54" s="2" t="n">
         <v>0</v>
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="U54" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -5129,7 +5129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="1">
       <c r="A58" s="2" t="inlineStr">
         <is>
           <t>2401010276</t>
@@ -5178,13 +5178,13 @@
         <v>1</v>
       </c>
       <c r="L58" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" s="6" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="N58" s="4" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="O58" s="7" t="inlineStr">
         <is>
@@ -5192,10 +5192,10 @@
         </is>
       </c>
       <c r="P58" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q58" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R58" s="2" t="n">
         <v>0</v>
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="U58" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -5262,10 +5262,10 @@
         <v>0</v>
       </c>
       <c r="M59" s="6" t="n">
-        <v>19.05</v>
+        <v>3.18</v>
       </c>
       <c r="N59" s="4" t="n">
-        <v>11.43</v>
+        <v>1.91</v>
       </c>
       <c r="O59" s="7" t="inlineStr">
         <is>
@@ -5273,10 +5273,10 @@
         </is>
       </c>
       <c r="P59" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q59" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R59" s="2" t="n">
         <v>0</v>
@@ -5288,10 +5288,10 @@
         <v>0</v>
       </c>
       <c r="U59" s="8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" hidden="1">
       <c r="A60" s="2" t="inlineStr">
         <is>
           <t>2401030024</t>
@@ -5343,10 +5343,10 @@
         <v>0</v>
       </c>
       <c r="M60" s="6" t="n">
-        <v>83.34999999999999</v>
+        <v>0</v>
       </c>
       <c r="N60" s="4" t="n">
-        <v>50.01</v>
+        <v>0</v>
       </c>
       <c r="O60" s="7" t="inlineStr">
         <is>
@@ -5354,10 +5354,10 @@
         </is>
       </c>
       <c r="P60" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q60" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R60" s="2" t="n">
         <v>0</v>
@@ -5369,10 +5369,10 @@
         <v>0</v>
       </c>
       <c r="U60" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" hidden="1">
       <c r="A61" s="2" t="inlineStr">
         <is>
           <t>2601010007</t>
@@ -5421,13 +5421,13 @@
         <v>1</v>
       </c>
       <c r="L61" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" s="6" t="n">
-        <v>18.15</v>
+        <v>0</v>
       </c>
       <c r="N61" s="4" t="n">
-        <v>10.89</v>
+        <v>0</v>
       </c>
       <c r="O61" s="7" t="inlineStr">
         <is>
@@ -5435,22 +5435,22 @@
         </is>
       </c>
       <c r="P61" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="R61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S61" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="T61" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U61" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" hidden="1">
@@ -5586,10 +5586,10 @@
         <v>0</v>
       </c>
       <c r="M63" s="6" t="n">
-        <v>18.38</v>
+        <v>12.25</v>
       </c>
       <c r="N63" s="4" t="n">
-        <v>11.03</v>
+        <v>7.35</v>
       </c>
       <c r="O63" s="7" t="inlineStr">
         <is>
@@ -5597,22 +5597,22 @@
         </is>
       </c>
       <c r="P63" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U63" s="8" t="n">
         <v>2</v>
-      </c>
-      <c r="R63" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S63" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T63" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U63" s="8" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="64" hidden="1">
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="1">
       <c r="A65" s="2" t="inlineStr">
         <is>
           <t>2701020031</t>
@@ -5748,10 +5748,10 @@
         <v>0</v>
       </c>
       <c r="M65" s="6" t="n">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="N65" s="4" t="n">
-        <v>5.58</v>
+        <v>0</v>
       </c>
       <c r="O65" s="7" t="inlineStr">
         <is>
@@ -5759,10 +5759,10 @@
         </is>
       </c>
       <c r="P65" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q65" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R65" s="2" t="n">
         <v>0</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="U65" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" hidden="1">
@@ -5858,7 +5858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
           <t>2706030022</t>
@@ -5910,10 +5910,10 @@
         <v>0</v>
       </c>
       <c r="M67" s="6" t="n">
-        <v>13.9</v>
+        <v>0</v>
       </c>
       <c r="N67" s="4" t="n">
-        <v>8.34</v>
+        <v>0</v>
       </c>
       <c r="O67" s="7" t="inlineStr">
         <is>
@@ -5921,10 +5921,10 @@
         </is>
       </c>
       <c r="P67" s="3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q67" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R67" s="2" t="n">
         <v>0</v>
@@ -5936,10 +5936,10 @@
         <v>2</v>
       </c>
       <c r="U67" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" hidden="1">
       <c r="A68" s="2" t="inlineStr">
         <is>
           <t>2601010001</t>
@@ -5991,10 +5991,10 @@
         <v>0</v>
       </c>
       <c r="M68" s="6" t="n">
-        <v>15.65</v>
+        <v>0</v>
       </c>
       <c r="N68" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>0</v>
       </c>
       <c r="O68" s="7" t="inlineStr">
         <is>
@@ -6002,10 +6002,10 @@
         </is>
       </c>
       <c r="P68" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q68" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R68" s="2" t="n">
         <v>0</v>
@@ -6017,7 +6017,7 @@
         <v>0</v>
       </c>
       <c r="U68" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -6072,10 +6072,10 @@
         <v>0</v>
       </c>
       <c r="M69" s="6" t="n">
-        <v>103.35</v>
+        <v>51.68</v>
       </c>
       <c r="N69" s="4" t="n">
-        <v>62.01</v>
+        <v>31.01</v>
       </c>
       <c r="O69" s="7" t="inlineStr">
         <is>
@@ -6083,10 +6083,10 @@
         </is>
       </c>
       <c r="P69" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R69" s="2" t="n">
         <v>0</v>
@@ -6098,10 +6098,10 @@
         <v>0</v>
       </c>
       <c r="U69" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" hidden="1">
       <c r="A70" s="2" t="inlineStr">
         <is>
           <t>2401010097</t>
@@ -6153,10 +6153,10 @@
         <v>0</v>
       </c>
       <c r="M70" s="6" t="n">
-        <v>8.33</v>
+        <v>0</v>
       </c>
       <c r="N70" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O70" s="7" t="inlineStr">
         <is>
@@ -6164,25 +6164,25 @@
         </is>
       </c>
       <c r="P70" s="3" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Q70" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R70" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T70" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U70" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" hidden="1">
       <c r="A71" s="2" t="inlineStr">
         <is>
           <t>2802070011</t>
@@ -6245,10 +6245,10 @@
         </is>
       </c>
       <c r="P71" s="3" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q71" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R71" s="2" t="n">
         <v>0</v>
@@ -6260,10 +6260,10 @@
         <v>0</v>
       </c>
       <c r="U71" s="8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" hidden="1">
       <c r="A72" s="2" t="inlineStr">
         <is>
           <t>2701030003</t>
@@ -6312,13 +6312,13 @@
         <v>1</v>
       </c>
       <c r="L72" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72" s="6" t="n">
-        <v>17.3</v>
+        <v>0</v>
       </c>
       <c r="N72" s="4" t="n">
-        <v>10.38</v>
+        <v>0</v>
       </c>
       <c r="O72" s="7" t="inlineStr">
         <is>
@@ -6326,22 +6326,22 @@
         </is>
       </c>
       <c r="P72" s="3" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Q72" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R72" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S72" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T72" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U72" s="8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -6506,7 +6506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="1">
       <c r="A75" s="2" t="inlineStr">
         <is>
           <t>2702050006</t>
@@ -6558,10 +6558,10 @@
         <v>0</v>
       </c>
       <c r="M75" s="6" t="n">
-        <v>179.55</v>
+        <v>0</v>
       </c>
       <c r="N75" s="4" t="n">
-        <v>107.73</v>
+        <v>0</v>
       </c>
       <c r="O75" s="7" t="inlineStr">
         <is>
@@ -6569,10 +6569,10 @@
         </is>
       </c>
       <c r="P75" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q75" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R75" s="2" t="n">
         <v>0</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="U75" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" hidden="1">
       <c r="A76" s="2" t="inlineStr">
         <is>
           <t>2304010077</t>
@@ -6639,10 +6639,10 @@
         <v>0</v>
       </c>
       <c r="M76" s="6" t="n">
-        <v>18.75</v>
+        <v>0</v>
       </c>
       <c r="N76" s="4" t="n">
-        <v>11.25</v>
+        <v>0</v>
       </c>
       <c r="O76" s="7" t="inlineStr">
         <is>
@@ -6650,10 +6650,10 @@
         </is>
       </c>
       <c r="P76" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q76" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R76" s="2" t="n">
         <v>0</v>
@@ -6665,10 +6665,10 @@
         <v>0</v>
       </c>
       <c r="U76" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" hidden="1">
       <c r="A77" s="2" t="inlineStr">
         <is>
           <t>2301060004</t>
@@ -6720,10 +6720,10 @@
         <v>0</v>
       </c>
       <c r="M77" s="6" t="n">
-        <v>65.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="N77" s="4" t="n">
-        <v>39.06</v>
+        <v>0</v>
       </c>
       <c r="O77" s="7" t="inlineStr">
         <is>
@@ -6731,10 +6731,10 @@
         </is>
       </c>
       <c r="P77" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q77" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R77" s="2" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="U77" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" hidden="1">
@@ -6911,7 +6911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="1">
       <c r="A80" s="2" t="inlineStr">
         <is>
           <t>2301060008</t>
@@ -6963,10 +6963,10 @@
         <v>0</v>
       </c>
       <c r="M80" s="6" t="n">
-        <v>63.8</v>
+        <v>0</v>
       </c>
       <c r="N80" s="4" t="n">
-        <v>38.28</v>
+        <v>0</v>
       </c>
       <c r="O80" s="7" t="inlineStr">
         <is>
@@ -6974,10 +6974,10 @@
         </is>
       </c>
       <c r="P80" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q80" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R80" s="2" t="n">
         <v>0</v>
@@ -6989,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="U80" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -7203,7 +7203,7 @@
         <v>1</v>
       </c>
       <c r="L83" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83" s="6" t="n">
         <v>7.05</v>
@@ -7235,7 +7235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="1">
       <c r="A84" s="2" t="inlineStr">
         <is>
           <t>2301090031</t>
@@ -7287,10 +7287,10 @@
         <v>0</v>
       </c>
       <c r="M84" s="6" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N84" s="4" t="n">
-        <v>14.04</v>
+        <v>0</v>
       </c>
       <c r="O84" s="7" t="inlineStr">
         <is>
@@ -7298,10 +7298,10 @@
         </is>
       </c>
       <c r="P84" s="3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q84" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R84" s="2" t="n">
         <v>0</v>
@@ -7313,7 +7313,7 @@
         <v>0</v>
       </c>
       <c r="U84" s="8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -7530,10 +7530,10 @@
         <v>0</v>
       </c>
       <c r="M87" s="6" t="n">
-        <v>4.55</v>
+        <v>6.82</v>
       </c>
       <c r="N87" s="4" t="n">
-        <v>2.73</v>
+        <v>4.09</v>
       </c>
       <c r="O87" s="7" t="inlineStr">
         <is>
@@ -7550,13 +7550,13 @@
         <v>0</v>
       </c>
       <c r="S87" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T87" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U87" s="8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
@@ -7640,7 +7640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="1">
       <c r="A89" s="2" t="inlineStr">
         <is>
           <t>2304010047</t>
@@ -7692,10 +7692,10 @@
         <v>0</v>
       </c>
       <c r="M89" s="6" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="N89" s="4" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="O89" s="7" t="inlineStr">
         <is>
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="P89" s="3" t="n">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="Q89" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S89" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="R89" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S89" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="T89" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U89" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" hidden="1">
       <c r="A90" s="2" t="inlineStr">
         <is>
           <t>2304010053</t>
@@ -7770,13 +7770,13 @@
         <v>1</v>
       </c>
       <c r="L90" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90" s="6" t="n">
-        <v>15.05</v>
+        <v>0</v>
       </c>
       <c r="N90" s="4" t="n">
-        <v>9.029999999999999</v>
+        <v>0</v>
       </c>
       <c r="O90" s="7" t="inlineStr">
         <is>
@@ -7784,10 +7784,10 @@
         </is>
       </c>
       <c r="P90" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q90" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R90" s="2" t="n">
         <v>0</v>
@@ -7799,7 +7799,7 @@
         <v>0</v>
       </c>
       <c r="U90" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -8094,7 +8094,7 @@
         <v>2</v>
       </c>
       <c r="L94" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M94" s="6" t="n">
         <v>11.92</v>
@@ -8126,7 +8126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" hidden="1">
       <c r="A95" s="2" t="inlineStr">
         <is>
           <t>2605010002</t>
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="L95" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M95" s="6" t="n">
         <v>0</v>
@@ -8189,22 +8189,22 @@
         </is>
       </c>
       <c r="P95" s="3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Q95" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R95" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S95" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T95" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U95" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -8337,13 +8337,13 @@
         <v>1</v>
       </c>
       <c r="L97" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M97" s="6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N97" s="4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O97" s="7" t="inlineStr">
         <is>
@@ -8360,16 +8360,16 @@
         <v>0</v>
       </c>
       <c r="S97" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T97" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U97" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" hidden="1">
       <c r="A98" s="2" t="inlineStr">
         <is>
           <t>2401010103</t>
@@ -8421,10 +8421,10 @@
         <v>0</v>
       </c>
       <c r="M98" s="6" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N98" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O98" s="7" t="inlineStr">
         <is>
@@ -8432,10 +8432,10 @@
         </is>
       </c>
       <c r="P98" s="3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q98" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R98" s="2" t="n">
         <v>0</v>
@@ -8447,7 +8447,7 @@
         <v>0</v>
       </c>
       <c r="U98" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -8502,10 +8502,10 @@
         <v>0</v>
       </c>
       <c r="M99" s="6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N99" s="4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O99" s="7" t="inlineStr">
         <is>
@@ -8522,16 +8522,16 @@
         <v>0</v>
       </c>
       <c r="S99" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T99" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U99" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" hidden="1">
       <c r="A100" s="2" t="inlineStr">
         <is>
           <t>2401010167</t>
@@ -8583,10 +8583,10 @@
         <v>0</v>
       </c>
       <c r="M100" s="6" t="n">
-        <v>28.15</v>
+        <v>0</v>
       </c>
       <c r="N100" s="4" t="n">
-        <v>16.89</v>
+        <v>0</v>
       </c>
       <c r="O100" s="7" t="inlineStr">
         <is>
@@ -8594,25 +8594,25 @@
         </is>
       </c>
       <c r="P100" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="R100" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S100" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="T100" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U100" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" hidden="1">
       <c r="A101" s="2" t="inlineStr">
         <is>
           <t>2401010168</t>
@@ -8664,10 +8664,10 @@
         <v>0</v>
       </c>
       <c r="M101" s="6" t="n">
-        <v>28.15</v>
+        <v>0</v>
       </c>
       <c r="N101" s="4" t="n">
-        <v>16.89</v>
+        <v>0</v>
       </c>
       <c r="O101" s="7" t="inlineStr">
         <is>
@@ -8675,25 +8675,25 @@
         </is>
       </c>
       <c r="P101" s="3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q101" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R101" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S101" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T101" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U101" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" hidden="1">
       <c r="A102" s="2" t="inlineStr">
         <is>
           <t>2401010171</t>
@@ -8745,10 +8745,10 @@
         <v>0</v>
       </c>
       <c r="M102" s="6" t="n">
-        <v>28.15</v>
+        <v>0</v>
       </c>
       <c r="N102" s="4" t="n">
-        <v>16.89</v>
+        <v>0</v>
       </c>
       <c r="O102" s="7" t="inlineStr">
         <is>
@@ -8756,10 +8756,10 @@
         </is>
       </c>
       <c r="P102" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q102" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R102" s="2" t="n">
         <v>0</v>
@@ -8771,10 +8771,10 @@
         <v>0</v>
       </c>
       <c r="U102" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" hidden="1">
       <c r="A103" s="2" t="inlineStr">
         <is>
           <t>2401010172</t>
@@ -8823,13 +8823,13 @@
         <v>1</v>
       </c>
       <c r="L103" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M103" s="6" t="n">
-        <v>56.3</v>
+        <v>0</v>
       </c>
       <c r="N103" s="4" t="n">
-        <v>33.78</v>
+        <v>0</v>
       </c>
       <c r="O103" s="7" t="inlineStr">
         <is>
@@ -8837,10 +8837,10 @@
         </is>
       </c>
       <c r="P103" s="3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q103" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R103" s="2" t="n">
         <v>0</v>
@@ -8852,10 +8852,10 @@
         <v>0</v>
       </c>
       <c r="U103" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" hidden="1">
       <c r="A104" s="2" t="inlineStr">
         <is>
           <t>2401010190</t>
@@ -8907,10 +8907,10 @@
         <v>0</v>
       </c>
       <c r="M104" s="6" t="n">
-        <v>31.5</v>
+        <v>0</v>
       </c>
       <c r="N104" s="4" t="n">
-        <v>18.9</v>
+        <v>0</v>
       </c>
       <c r="O104" s="7" t="inlineStr">
         <is>
@@ -8918,10 +8918,10 @@
         </is>
       </c>
       <c r="P104" s="3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q104" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R104" s="2" t="n">
         <v>0</v>
@@ -8933,10 +8933,10 @@
         <v>0</v>
       </c>
       <c r="U104" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" hidden="1">
       <c r="A105" s="2" t="inlineStr">
         <is>
           <t>2401010191</t>
@@ -8988,10 +8988,10 @@
         <v>0</v>
       </c>
       <c r="M105" s="6" t="n">
-        <v>28.15</v>
+        <v>0</v>
       </c>
       <c r="N105" s="4" t="n">
-        <v>16.89</v>
+        <v>0</v>
       </c>
       <c r="O105" s="7" t="inlineStr">
         <is>
@@ -8999,10 +8999,10 @@
         </is>
       </c>
       <c r="P105" s="3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q105" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R105" s="2" t="n">
         <v>0</v>
@@ -9014,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="U105" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" hidden="1">
       <c r="A106" s="2" t="inlineStr">
         <is>
           <t>2401010192</t>
@@ -9069,10 +9069,10 @@
         <v>0</v>
       </c>
       <c r="M106" s="6" t="n">
-        <v>18.1</v>
+        <v>0</v>
       </c>
       <c r="N106" s="4" t="n">
-        <v>10.86</v>
+        <v>0</v>
       </c>
       <c r="O106" s="7" t="inlineStr">
         <is>
@@ -9080,25 +9080,25 @@
         </is>
       </c>
       <c r="P106" s="3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q106" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R106" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S106" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="R106" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S106" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="T106" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U106" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" hidden="1">
       <c r="A107" s="2" t="inlineStr">
         <is>
           <t>2401010247</t>
@@ -9150,10 +9150,10 @@
         <v>0</v>
       </c>
       <c r="M107" s="6" t="n">
-        <v>5.78</v>
+        <v>0</v>
       </c>
       <c r="N107" s="4" t="n">
-        <v>3.47</v>
+        <v>0</v>
       </c>
       <c r="O107" s="7" t="inlineStr">
         <is>
@@ -9161,10 +9161,10 @@
         </is>
       </c>
       <c r="P107" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q107" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R107" s="2" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="U107" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -9228,7 +9228,7 @@
         <v>2</v>
       </c>
       <c r="L108" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M108" s="6" t="n">
         <v>15.4</v>
@@ -9260,7 +9260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" hidden="1">
       <c r="A109" s="2" t="inlineStr">
         <is>
           <t>2401010310</t>
@@ -9312,10 +9312,10 @@
         <v>0</v>
       </c>
       <c r="M109" s="6" t="n">
-        <v>7.65</v>
+        <v>0</v>
       </c>
       <c r="N109" s="4" t="n">
-        <v>4.59</v>
+        <v>0</v>
       </c>
       <c r="O109" s="7" t="inlineStr">
         <is>
@@ -9323,10 +9323,10 @@
         </is>
       </c>
       <c r="P109" s="3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q109" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R109" s="2" t="n">
         <v>0</v>
@@ -9338,10 +9338,10 @@
         <v>0</v>
       </c>
       <c r="U109" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" hidden="1">
       <c r="A110" s="2" t="inlineStr">
         <is>
           <t>2401090010</t>
@@ -9393,10 +9393,10 @@
         <v>0</v>
       </c>
       <c r="M110" s="6" t="n">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="N110" s="4" t="n">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="O110" s="7" t="inlineStr">
         <is>
@@ -9404,25 +9404,25 @@
         </is>
       </c>
       <c r="P110" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q110" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R110" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S110" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T110" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U110" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" hidden="1">
       <c r="A111" s="2" t="inlineStr">
         <is>
           <t>2301080019</t>
@@ -9474,10 +9474,10 @@
         <v>0</v>
       </c>
       <c r="M111" s="6" t="n">
-        <v>13.45</v>
+        <v>0</v>
       </c>
       <c r="N111" s="4" t="n">
-        <v>8.07</v>
+        <v>0</v>
       </c>
       <c r="O111" s="7" t="inlineStr">
         <is>
@@ -9485,25 +9485,25 @@
         </is>
       </c>
       <c r="P111" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q111" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R111" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S111" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T111" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U111" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" hidden="1">
       <c r="A112" s="2" t="inlineStr">
         <is>
           <t>2301080033</t>
@@ -9552,13 +9552,13 @@
         <v>1</v>
       </c>
       <c r="L112" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M112" s="6" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="N112" s="4" t="n">
-        <v>6.96</v>
+        <v>0</v>
       </c>
       <c r="O112" s="7" t="inlineStr">
         <is>
@@ -9566,10 +9566,10 @@
         </is>
       </c>
       <c r="P112" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q112" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R112" s="2" t="n">
         <v>0</v>
@@ -9581,10 +9581,10 @@
         <v>0</v>
       </c>
       <c r="U112" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" hidden="1">
       <c r="A113" s="2" t="inlineStr">
         <is>
           <t>2301080035</t>
@@ -9633,13 +9633,13 @@
         <v>4</v>
       </c>
       <c r="L113" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M113" s="6" t="n">
-        <v>26.25</v>
+        <v>0</v>
       </c>
       <c r="N113" s="4" t="n">
-        <v>15.75</v>
+        <v>0</v>
       </c>
       <c r="O113" s="7" t="inlineStr">
         <is>
@@ -9647,25 +9647,25 @@
         </is>
       </c>
       <c r="P113" s="3" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="Q113" s="3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R113" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S113" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T113" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U113" s="8" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" hidden="1">
       <c r="A114" s="2" t="inlineStr">
         <is>
           <t>2301080036</t>
@@ -9714,13 +9714,13 @@
         <v>2</v>
       </c>
       <c r="L114" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M114" s="6" t="n">
-        <v>6.15</v>
+        <v>0</v>
       </c>
       <c r="N114" s="4" t="n">
-        <v>3.69</v>
+        <v>0</v>
       </c>
       <c r="O114" s="7" t="inlineStr">
         <is>
@@ -9728,25 +9728,25 @@
         </is>
       </c>
       <c r="P114" s="3" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Q114" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R114" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S114" s="2" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="T114" s="3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="U114" s="8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" hidden="1">
       <c r="A115" s="2" t="inlineStr">
         <is>
           <t>2301080037</t>
@@ -9795,13 +9795,13 @@
         <v>2</v>
       </c>
       <c r="L115" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M115" s="6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N115" s="4" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="O115" s="7" t="inlineStr">
         <is>
@@ -9809,10 +9809,10 @@
         </is>
       </c>
       <c r="P115" s="3" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="Q115" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R115" s="2" t="n">
         <v>0</v>
@@ -9824,10 +9824,10 @@
         <v>0</v>
       </c>
       <c r="U115" s="8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" hidden="1">
       <c r="A116" s="2" t="inlineStr">
         <is>
           <t>2301080038</t>
@@ -9876,13 +9876,13 @@
         <v>3</v>
       </c>
       <c r="L116" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M116" s="6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N116" s="4" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O116" s="7" t="inlineStr">
         <is>
@@ -9890,10 +9890,10 @@
         </is>
       </c>
       <c r="P116" s="3" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="Q116" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R116" s="2" t="n">
         <v>0</v>
@@ -9905,7 +9905,7 @@
         <v>0</v>
       </c>
       <c r="U116" s="8" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -9957,13 +9957,13 @@
         <v>2</v>
       </c>
       <c r="L117" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M117" s="6" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N117" s="4" t="n">
-        <v>1.68</v>
+        <v>2.4</v>
       </c>
       <c r="O117" s="7" t="inlineStr">
         <is>
@@ -9980,16 +9980,16 @@
         <v>0</v>
       </c>
       <c r="S117" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T117" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U117" s="8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" hidden="1">
       <c r="A118" s="2" t="inlineStr">
         <is>
           <t>2301080041</t>
@@ -10038,13 +10038,13 @@
         <v>1</v>
       </c>
       <c r="L118" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M118" s="6" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="N118" s="4" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="O118" s="7" t="inlineStr">
         <is>
@@ -10052,10 +10052,10 @@
         </is>
       </c>
       <c r="P118" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q118" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R118" s="2" t="n">
         <v>0</v>
@@ -10067,7 +10067,7 @@
         <v>0</v>
       </c>
       <c r="U118" s="8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -10122,10 +10122,10 @@
         <v>0</v>
       </c>
       <c r="M119" s="6" t="n">
-        <v>9.199999999999999</v>
+        <v>27.6</v>
       </c>
       <c r="N119" s="4" t="n">
-        <v>5.52</v>
+        <v>16.56</v>
       </c>
       <c r="O119" s="7" t="inlineStr">
         <is>
@@ -10142,13 +10142,13 @@
         <v>0</v>
       </c>
       <c r="S119" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T119" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U119" s="8" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120">
@@ -10200,7 +10200,7 @@
         <v>1</v>
       </c>
       <c r="L120" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M120" s="6" t="n">
         <v>0</v>
@@ -10232,7 +10232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" hidden="1">
       <c r="A121" s="2" t="inlineStr">
         <is>
           <t>2301080045</t>
@@ -10281,13 +10281,13 @@
         <v>1</v>
       </c>
       <c r="L121" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M121" s="6" t="n">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="N121" s="4" t="n">
-        <v>5.22</v>
+        <v>0</v>
       </c>
       <c r="O121" s="7" t="inlineStr">
         <is>
@@ -10295,22 +10295,22 @@
         </is>
       </c>
       <c r="P121" s="3" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Q121" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R121" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S121" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="R121" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S121" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="T121" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U121" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -10394,7 +10394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" hidden="1">
       <c r="A123" s="2" t="inlineStr">
         <is>
           <t>2301080050</t>
@@ -10443,13 +10443,13 @@
         <v>1</v>
       </c>
       <c r="L123" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M123" s="6" t="n">
-        <v>5.15</v>
+        <v>0</v>
       </c>
       <c r="N123" s="4" t="n">
-        <v>3.09</v>
+        <v>0</v>
       </c>
       <c r="O123" s="7" t="inlineStr">
         <is>
@@ -10457,25 +10457,25 @@
         </is>
       </c>
       <c r="P123" s="3" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Q123" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R123" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S123" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T123" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U123" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" hidden="1">
       <c r="A124" s="2" t="inlineStr">
         <is>
           <t>2301080053</t>
@@ -10524,13 +10524,13 @@
         <v>2</v>
       </c>
       <c r="L124" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M124" s="6" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="N124" s="4" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="O124" s="7" t="inlineStr">
         <is>
@@ -10538,22 +10538,22 @@
         </is>
       </c>
       <c r="P124" s="3" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="Q124" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R124" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S124" s="2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T124" s="3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U124" s="8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -10608,10 +10608,10 @@
         <v>0</v>
       </c>
       <c r="M125" s="6" t="n">
-        <v>29.75</v>
+        <v>59.5</v>
       </c>
       <c r="N125" s="4" t="n">
-        <v>17.85</v>
+        <v>35.7</v>
       </c>
       <c r="O125" s="7" t="inlineStr">
         <is>
@@ -10628,16 +10628,16 @@
         <v>0</v>
       </c>
       <c r="S125" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T125" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U125" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" hidden="1">
       <c r="A126" s="2" t="inlineStr">
         <is>
           <t>2301080087</t>
@@ -10689,10 +10689,10 @@
         <v>0</v>
       </c>
       <c r="M126" s="6" t="n">
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="N126" s="4" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="O126" s="7" t="inlineStr">
         <is>
@@ -10700,22 +10700,22 @@
         </is>
       </c>
       <c r="P126" s="3" t="n">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="Q126" s="3" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="R126" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S126" s="2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T126" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U126" s="8" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -10880,7 +10880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" hidden="1">
       <c r="A129" s="2" t="inlineStr">
         <is>
           <t>2301080090</t>
@@ -10929,13 +10929,13 @@
         <v>1</v>
       </c>
       <c r="L129" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M129" s="6" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="N129" s="4" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="O129" s="7" t="inlineStr">
         <is>
@@ -10943,10 +10943,10 @@
         </is>
       </c>
       <c r="P129" s="3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q129" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R129" s="2" t="n">
         <v>0</v>
@@ -10958,10 +10958,10 @@
         <v>0</v>
       </c>
       <c r="U129" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" hidden="1">
       <c r="A130" s="2" t="inlineStr">
         <is>
           <t>2301080091</t>
@@ -11013,10 +11013,10 @@
         <v>0</v>
       </c>
       <c r="M130" s="6" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="N130" s="4" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="O130" s="7" t="inlineStr">
         <is>
@@ -11024,22 +11024,22 @@
         </is>
       </c>
       <c r="P130" s="3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q130" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R130" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S130" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T130" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U130" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -11091,7 +11091,7 @@
         <v>4</v>
       </c>
       <c r="L131" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M131" s="6" t="n">
         <v>8.93</v>
@@ -11285,7 +11285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" hidden="1">
       <c r="A134" s="2" t="inlineStr">
         <is>
           <t>2301100006</t>
@@ -11334,13 +11334,13 @@
         <v>1</v>
       </c>
       <c r="L134" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M134" s="6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N134" s="4" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O134" s="7" t="inlineStr">
         <is>
@@ -11348,10 +11348,10 @@
         </is>
       </c>
       <c r="P134" s="3" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="Q134" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R134" s="2" t="n">
         <v>0</v>
@@ -11363,7 +11363,7 @@
         <v>0</v>
       </c>
       <c r="U134" s="8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" hidden="1">
@@ -11528,7 +11528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" hidden="1">
       <c r="A137" s="2" t="inlineStr">
         <is>
           <t>2103020001</t>
@@ -11580,10 +11580,10 @@
         <v>0</v>
       </c>
       <c r="M137" s="6" t="n">
-        <v>20.33</v>
+        <v>0</v>
       </c>
       <c r="N137" s="4" t="n">
-        <v>12.2</v>
+        <v>0</v>
       </c>
       <c r="O137" s="7" t="inlineStr">
         <is>
@@ -11591,10 +11591,10 @@
         </is>
       </c>
       <c r="P137" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q137" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R137" s="2" t="n">
         <v>0</v>
@@ -11606,10 +11606,10 @@
         <v>1</v>
       </c>
       <c r="U137" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" hidden="1">
       <c r="A138" s="2" t="inlineStr">
         <is>
           <t>2201010018</t>
@@ -11658,13 +11658,13 @@
         <v>2</v>
       </c>
       <c r="L138" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M138" s="6" t="n">
-        <v>70.2</v>
+        <v>0</v>
       </c>
       <c r="N138" s="4" t="n">
-        <v>42.12</v>
+        <v>0</v>
       </c>
       <c r="O138" s="7" t="inlineStr">
         <is>
@@ -11672,25 +11672,25 @@
         </is>
       </c>
       <c r="P138" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q138" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R138" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S138" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T138" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U138" s="8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" hidden="1">
       <c r="A139" s="2" t="inlineStr">
         <is>
           <t>2201040001</t>
@@ -11742,10 +11742,10 @@
         <v>0</v>
       </c>
       <c r="M139" s="6" t="n">
-        <v>9.52</v>
+        <v>0</v>
       </c>
       <c r="N139" s="4" t="n">
-        <v>5.71</v>
+        <v>0</v>
       </c>
       <c r="O139" s="7" t="inlineStr">
         <is>
@@ -11753,22 +11753,22 @@
         </is>
       </c>
       <c r="P139" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q139" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R139" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S139" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T139" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U139" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" hidden="1">
@@ -11901,13 +11901,13 @@
         <v>1</v>
       </c>
       <c r="L141" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M141" s="6" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="N141" s="4" t="n">
-        <v>2.52</v>
+        <v>1.26</v>
       </c>
       <c r="O141" s="7" t="inlineStr">
         <is>
@@ -11915,25 +11915,25 @@
         </is>
       </c>
       <c r="P141" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q141" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R141" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S141" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T141" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U141" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" hidden="1">
       <c r="A142" s="2" t="inlineStr">
         <is>
           <t>2203020002</t>
@@ -11985,10 +11985,10 @@
         <v>0</v>
       </c>
       <c r="M142" s="6" t="n">
-        <v>5.85</v>
+        <v>0</v>
       </c>
       <c r="N142" s="4" t="n">
-        <v>3.51</v>
+        <v>0</v>
       </c>
       <c r="O142" s="7" t="inlineStr">
         <is>
@@ -11996,25 +11996,25 @@
         </is>
       </c>
       <c r="P142" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q142" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R142" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S142" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T142" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U142" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" hidden="1">
       <c r="A143" s="2" t="inlineStr">
         <is>
           <t>2203020005</t>
@@ -12027,7 +12027,7 @@
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">25L      </t>
+          <t xml:space="preserve">10L      </t>
         </is>
       </c>
       <c r="D143" s="2" t="inlineStr">
@@ -12041,58 +12041,58 @@
         </is>
       </c>
       <c r="F143" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G143" s="4" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H143" s="4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I143" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J143" s="2" t="inlineStr">
+        <is>
+          <t>AUMENTAR 19%</t>
+        </is>
+      </c>
+      <c r="K143" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PILESAN CB                                                                                                              </t>
+        </is>
+      </c>
+      <c r="P143" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G143" s="4" t="n">
-        <v>15.25</v>
-      </c>
-      <c r="H143" s="4" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="I143" s="5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>MANTENER</t>
-        </is>
-      </c>
-      <c r="K143" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L143" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M143" s="6" t="n">
-        <v>106.75</v>
-      </c>
-      <c r="N143" s="4" t="n">
-        <v>64.05</v>
-      </c>
-      <c r="O143" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PILESAN CB                                                                                                              </t>
-        </is>
-      </c>
-      <c r="P143" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q143" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R143" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S143" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T143" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U143" s="8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" hidden="1">
@@ -12108,7 +12108,7 @@
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">10L      </t>
+          <t xml:space="preserve">25L      </t>
         </is>
       </c>
       <c r="D144" s="2" t="inlineStr">
@@ -12122,13 +12122,13 @@
         </is>
       </c>
       <c r="F144" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G144" s="4" t="n">
-        <v>6.25</v>
+        <v>15.25</v>
       </c>
       <c r="H144" s="4" t="n">
-        <v>2.5</v>
+        <v>6.1</v>
       </c>
       <c r="I144" s="5" t="inlineStr">
         <is>
@@ -12137,14 +12137,14 @@
       </c>
       <c r="J144" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>MANTENER</t>
         </is>
       </c>
       <c r="K144" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L144" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M144" s="6" t="n">
         <v>0</v>
@@ -12158,25 +12158,25 @@
         </is>
       </c>
       <c r="P144" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q144" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R144" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S144" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="Q144" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R144" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S144" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="T144" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U144" s="8" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" hidden="1">
       <c r="A145" s="2" t="inlineStr">
         <is>
           <t>2301010126</t>
@@ -12228,10 +12228,10 @@
         <v>0</v>
       </c>
       <c r="M145" s="6" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="N145" s="4" t="n">
-        <v>4.98</v>
+        <v>0</v>
       </c>
       <c r="O145" s="7" t="inlineStr">
         <is>
@@ -12239,25 +12239,25 @@
         </is>
       </c>
       <c r="P145" s="3" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Q145" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R145" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S145" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T145" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U145" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" hidden="1">
       <c r="A146" s="2" t="inlineStr">
         <is>
           <t>2301090013</t>
@@ -12306,13 +12306,13 @@
         <v>1</v>
       </c>
       <c r="L146" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M146" s="6" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="N146" s="4" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="O146" s="7" t="inlineStr">
         <is>
@@ -12320,10 +12320,10 @@
         </is>
       </c>
       <c r="P146" s="3" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q146" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R146" s="2" t="n">
         <v>0</v>
@@ -12335,10 +12335,10 @@
         <v>0</v>
       </c>
       <c r="U146" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" hidden="1">
       <c r="A147" s="2" t="inlineStr">
         <is>
           <t>2301100007</t>
@@ -12390,10 +12390,10 @@
         <v>0</v>
       </c>
       <c r="M147" s="6" t="n">
-        <v>5.62</v>
+        <v>0</v>
       </c>
       <c r="N147" s="4" t="n">
-        <v>3.37</v>
+        <v>0</v>
       </c>
       <c r="O147" s="7" t="inlineStr">
         <is>
@@ -12401,22 +12401,22 @@
         </is>
       </c>
       <c r="P147" s="3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q147" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R147" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S147" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T147" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U147" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" hidden="1">
@@ -12552,10 +12552,10 @@
         <v>0</v>
       </c>
       <c r="M149" s="6" t="n">
-        <v>1.95</v>
+        <v>4.88</v>
       </c>
       <c r="N149" s="4" t="n">
-        <v>1.17</v>
+        <v>2.93</v>
       </c>
       <c r="O149" s="7" t="inlineStr">
         <is>
@@ -12572,13 +12572,13 @@
         <v>0</v>
       </c>
       <c r="S149" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T149" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U149" s="8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150">
@@ -12824,7 +12824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" hidden="1">
       <c r="A153" s="2" t="inlineStr">
         <is>
           <t>2101010012</t>
@@ -12876,10 +12876,10 @@
         <v>0</v>
       </c>
       <c r="M153" s="6" t="n">
-        <v>68.65000000000001</v>
+        <v>0</v>
       </c>
       <c r="N153" s="4" t="n">
-        <v>41.19</v>
+        <v>0</v>
       </c>
       <c r="O153" s="7" t="inlineStr">
         <is>
@@ -12887,10 +12887,10 @@
         </is>
       </c>
       <c r="P153" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q153" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R153" s="2" t="n">
         <v>0</v>
@@ -12902,7 +12902,7 @@
         <v>0</v>
       </c>
       <c r="U153" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" hidden="1">
@@ -12986,7 +12986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" hidden="1">
       <c r="A155" s="2" t="inlineStr">
         <is>
           <t>2401010047</t>
@@ -13038,10 +13038,10 @@
         <v>0</v>
       </c>
       <c r="M155" s="6" t="n">
-        <v>17.1</v>
+        <v>0</v>
       </c>
       <c r="N155" s="4" t="n">
-        <v>10.26</v>
+        <v>0</v>
       </c>
       <c r="O155" s="7" t="inlineStr">
         <is>
@@ -13049,10 +13049,10 @@
         </is>
       </c>
       <c r="P155" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q155" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R155" s="2" t="n">
         <v>0</v>
@@ -13064,7 +13064,7 @@
         <v>1</v>
       </c>
       <c r="U155" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" hidden="1">
@@ -13229,7 +13229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" hidden="1">
       <c r="A158" s="2" t="inlineStr">
         <is>
           <t>2603040002</t>
@@ -13281,10 +13281,10 @@
         <v>0</v>
       </c>
       <c r="M158" s="6" t="n">
-        <v>12.65</v>
+        <v>0</v>
       </c>
       <c r="N158" s="4" t="n">
-        <v>7.59</v>
+        <v>0</v>
       </c>
       <c r="O158" s="7" t="inlineStr">
         <is>
@@ -13292,10 +13292,10 @@
         </is>
       </c>
       <c r="P158" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q158" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R158" s="2" t="n">
         <v>0</v>
@@ -13307,7 +13307,7 @@
         <v>0</v>
       </c>
       <c r="U158" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" hidden="1">
@@ -13391,7 +13391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" hidden="1">
       <c r="A160" s="2" t="inlineStr">
         <is>
           <t>2704050022</t>
@@ -13443,10 +13443,10 @@
         <v>0</v>
       </c>
       <c r="M160" s="6" t="n">
-        <v>19.4</v>
+        <v>0</v>
       </c>
       <c r="N160" s="4" t="n">
-        <v>11.64</v>
+        <v>0</v>
       </c>
       <c r="O160" s="7" t="inlineStr">
         <is>
@@ -13454,10 +13454,10 @@
         </is>
       </c>
       <c r="P160" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q160" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R160" s="2" t="n">
         <v>0</v>
@@ -13469,10 +13469,10 @@
         <v>0</v>
       </c>
       <c r="U160" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" hidden="1">
       <c r="A161" s="2" t="inlineStr">
         <is>
           <t>2301010057</t>
@@ -13524,10 +13524,10 @@
         <v>0</v>
       </c>
       <c r="M161" s="6" t="n">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="N161" s="4" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="O161" s="7" t="inlineStr">
         <is>
@@ -13535,10 +13535,10 @@
         </is>
       </c>
       <c r="P161" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q161" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R161" s="2" t="n">
         <v>0</v>
@@ -13550,7 +13550,7 @@
         <v>0</v>
       </c>
       <c r="U161" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -13958,7 +13958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" hidden="1">
       <c r="A167" s="2" t="inlineStr">
         <is>
           <t>2301030049</t>
@@ -14010,10 +14010,10 @@
         <v>0</v>
       </c>
       <c r="M167" s="6" t="n">
-        <v>57.05</v>
+        <v>0</v>
       </c>
       <c r="N167" s="4" t="n">
-        <v>34.23</v>
+        <v>0</v>
       </c>
       <c r="O167" s="7" t="inlineStr">
         <is>
@@ -14021,10 +14021,10 @@
         </is>
       </c>
       <c r="P167" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q167" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R167" s="2" t="n">
         <v>0</v>
@@ -14036,7 +14036,7 @@
         <v>0</v>
       </c>
       <c r="U167" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -14201,7 +14201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" hidden="1">
       <c r="A170" s="2" t="inlineStr">
         <is>
           <t>2404030016</t>
@@ -14253,10 +14253,10 @@
         <v>0</v>
       </c>
       <c r="M170" s="6" t="n">
-        <v>172.25</v>
+        <v>0</v>
       </c>
       <c r="N170" s="4" t="n">
-        <v>103.35</v>
+        <v>0</v>
       </c>
       <c r="O170" s="7" t="inlineStr">
         <is>
@@ -14264,10 +14264,10 @@
         </is>
       </c>
       <c r="P170" s="3" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="Q170" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R170" s="2" t="n">
         <v>0</v>
@@ -14279,10 +14279,10 @@
         <v>2</v>
       </c>
       <c r="U170" s="8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" hidden="1">
       <c r="A171" s="2" t="inlineStr">
         <is>
           <t>2301010180</t>
@@ -14334,10 +14334,10 @@
         <v>0</v>
       </c>
       <c r="M171" s="6" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="N171" s="4" t="n">
-        <v>3.12</v>
+        <v>0</v>
       </c>
       <c r="O171" s="7" t="inlineStr">
         <is>
@@ -14345,10 +14345,10 @@
         </is>
       </c>
       <c r="P171" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q171" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R171" s="2" t="n">
         <v>0</v>
@@ -14360,7 +14360,7 @@
         <v>0</v>
       </c>
       <c r="U171" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -14444,7 +14444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" hidden="1">
       <c r="A173" s="2" t="inlineStr">
         <is>
           <t>2301010184</t>
@@ -14493,13 +14493,13 @@
         <v>1</v>
       </c>
       <c r="L173" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M173" s="6" t="n">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="N173" s="4" t="n">
-        <v>2.73</v>
+        <v>0</v>
       </c>
       <c r="O173" s="7" t="inlineStr">
         <is>
@@ -14507,10 +14507,10 @@
         </is>
       </c>
       <c r="P173" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q173" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R173" s="2" t="n">
         <v>0</v>
@@ -14522,7 +14522,7 @@
         <v>0</v>
       </c>
       <c r="U173" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -14655,7 +14655,7 @@
         <v>1</v>
       </c>
       <c r="L175" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M175" s="6" t="n">
         <v>10.65</v>
@@ -14687,7 +14687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" hidden="1">
       <c r="A176" s="2" t="inlineStr">
         <is>
           <t>2402050033</t>
@@ -14736,13 +14736,13 @@
         <v>1</v>
       </c>
       <c r="L176" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M176" s="6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N176" s="4" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="O176" s="7" t="inlineStr">
         <is>
@@ -14750,10 +14750,10 @@
         </is>
       </c>
       <c r="P176" s="3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q176" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R176" s="2" t="n">
         <v>0</v>
@@ -14765,10 +14765,10 @@
         <v>0</v>
       </c>
       <c r="U176" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" hidden="1">
       <c r="A177" s="2" t="inlineStr">
         <is>
           <t>2404030007</t>
@@ -14781,141 +14781,141 @@
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">4300G    </t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNICO   </t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>mascotas_manufacturado</t>
+        </is>
+      </c>
+      <c r="F177" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G177" s="4" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="H177" s="4" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="I177" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J177" s="2" t="inlineStr">
+        <is>
+          <t>REDUCIR 19%</t>
+        </is>
+      </c>
+      <c r="K177" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N177" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O177" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TRAMP PET FOOD S.L.                                                                                                     </t>
+        </is>
+      </c>
+      <c r="P177" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q177" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R177" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S177" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T177" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U177" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" hidden="1">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>2404030007</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>CAT'S BEST ORIGINAL LECHO VEGETAL PARA GATOS</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">8600G    </t>
         </is>
       </c>
-      <c r="D177" s="2" t="inlineStr">
+      <c r="D178" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">UNICO   </t>
         </is>
       </c>
-      <c r="E177" s="2" t="inlineStr">
-        <is>
-          <t>mascotas_manufacturado</t>
-        </is>
-      </c>
-      <c r="F177" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G177" s="4" t="n">
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>mascotas_manufacturado</t>
+        </is>
+      </c>
+      <c r="F178" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G178" s="4" t="n">
         <v>33.9</v>
       </c>
-      <c r="H177" s="4" t="n">
+      <c r="H178" s="4" t="n">
         <v>13.56</v>
       </c>
-      <c r="I177" s="5" t="inlineStr">
+      <c r="I178" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J177" s="2" t="inlineStr">
+      <c r="J178" s="2" t="inlineStr">
         <is>
           <t>REDUCIR 15%</t>
         </is>
       </c>
-      <c r="K177" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L177" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M177" s="6" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="N177" s="4" t="n">
-        <v>40.68</v>
-      </c>
-      <c r="O177" s="7" t="inlineStr">
+      <c r="K178" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N178" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O178" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">TRAMP PET FOOD S.L.                                                                                                     </t>
         </is>
       </c>
-      <c r="P177" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q177" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="R177" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S177" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T177" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U177" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="2" t="inlineStr">
-        <is>
-          <t>2404030007</t>
-        </is>
-      </c>
-      <c r="B178" s="2" t="inlineStr">
-        <is>
-          <t>CAT'S BEST ORIGINAL LECHO VEGETAL PARA GATOS</t>
-        </is>
-      </c>
-      <c r="C178" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4300G    </t>
-        </is>
-      </c>
-      <c r="D178" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UNICO   </t>
-        </is>
-      </c>
-      <c r="E178" s="2" t="inlineStr">
-        <is>
-          <t>mascotas_manufacturado</t>
-        </is>
-      </c>
-      <c r="F178" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G178" s="4" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="H178" s="4" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="I178" s="5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>REDUCIR 19%</t>
-        </is>
-      </c>
-      <c r="K178" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L178" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M178" s="6" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="N178" s="4" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="O178" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TRAMP PET FOOD S.L.                                                                                                     </t>
-        </is>
-      </c>
       <c r="P178" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q178" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R178" s="2" t="n">
         <v>0</v>
@@ -14927,7 +14927,7 @@
         <v>0</v>
       </c>
       <c r="U178" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -15060,7 +15060,7 @@
         <v>2</v>
       </c>
       <c r="L180" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M180" s="6" t="n">
         <v>36</v>
@@ -15141,7 +15141,7 @@
         <v>1</v>
       </c>
       <c r="L181" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M181" s="6" t="n">
         <v>0</v>
@@ -15173,7 +15173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" hidden="1">
       <c r="A182" s="2" t="inlineStr">
         <is>
           <t>2301010084</t>
@@ -15186,7 +15186,7 @@
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">300G     </t>
+          <t xml:space="preserve">100G     </t>
         </is>
       </c>
       <c r="D182" s="2" t="inlineStr">
@@ -15200,13 +15200,13 @@
         </is>
       </c>
       <c r="F182" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G182" s="4" t="n">
-        <v>4.5</v>
+        <v>1.68</v>
       </c>
       <c r="H182" s="4" t="n">
-        <v>1.8</v>
+        <v>0.67</v>
       </c>
       <c r="I182" s="5" t="inlineStr">
         <is>
@@ -15225,10 +15225,10 @@
         <v>0</v>
       </c>
       <c r="M182" s="6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N182" s="4" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="O182" s="7" t="inlineStr">
         <is>
@@ -15236,10 +15236,10 @@
         </is>
       </c>
       <c r="P182" s="3" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Q182" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R182" s="2" t="n">
         <v>0</v>
@@ -15251,7 +15251,7 @@
         <v>0</v>
       </c>
       <c r="U182" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" hidden="1">
@@ -15267,7 +15267,7 @@
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">100G     </t>
+          <t xml:space="preserve">300G     </t>
         </is>
       </c>
       <c r="D183" s="2" t="inlineStr">
@@ -15281,13 +15281,13 @@
         </is>
       </c>
       <c r="F183" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G183" s="4" t="n">
-        <v>1.68</v>
+        <v>4.5</v>
       </c>
       <c r="H183" s="4" t="n">
-        <v>0.67</v>
+        <v>1.8</v>
       </c>
       <c r="I183" s="5" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>1</v>
       </c>
       <c r="L183" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M183" s="6" t="n">
         <v>0</v>
@@ -15317,7 +15317,7 @@
         </is>
       </c>
       <c r="P183" s="3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q183" s="3" t="n">
         <v>0</v>
@@ -15546,7 +15546,7 @@
         <v>1</v>
       </c>
       <c r="L186" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M186" s="6" t="n">
         <v>0</v>
@@ -15578,7 +15578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" hidden="1">
       <c r="A187" s="2" t="inlineStr">
         <is>
           <t>2301180006</t>
@@ -15630,10 +15630,10 @@
         <v>0</v>
       </c>
       <c r="M187" s="6" t="n">
-        <v>80.84999999999999</v>
+        <v>0</v>
       </c>
       <c r="N187" s="4" t="n">
-        <v>48.51</v>
+        <v>0</v>
       </c>
       <c r="O187" s="7" t="inlineStr">
         <is>
@@ -15641,10 +15641,10 @@
         </is>
       </c>
       <c r="P187" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q187" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R187" s="2" t="n">
         <v>0</v>
@@ -15656,10 +15656,10 @@
         <v>1</v>
       </c>
       <c r="U187" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" hidden="1">
       <c r="A188" s="2" t="inlineStr">
         <is>
           <t>2301180007</t>
@@ -15711,10 +15711,10 @@
         <v>0</v>
       </c>
       <c r="M188" s="6" t="n">
-        <v>40.4</v>
+        <v>0</v>
       </c>
       <c r="N188" s="4" t="n">
-        <v>24.24</v>
+        <v>0</v>
       </c>
       <c r="O188" s="7" t="inlineStr">
         <is>
@@ -15722,10 +15722,10 @@
         </is>
       </c>
       <c r="P188" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q188" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R188" s="2" t="n">
         <v>0</v>
@@ -15737,7 +15737,7 @@
         <v>0</v>
       </c>
       <c r="U188" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -15954,10 +15954,10 @@
         <v>0</v>
       </c>
       <c r="M191" s="6" t="n">
-        <v>57.22</v>
+        <v>19.08</v>
       </c>
       <c r="N191" s="4" t="n">
-        <v>34.33</v>
+        <v>11.45</v>
       </c>
       <c r="O191" s="7" t="inlineStr">
         <is>
@@ -15965,10 +15965,10 @@
         </is>
       </c>
       <c r="P191" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q191" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R191" s="2" t="n">
         <v>0</v>
@@ -15980,10 +15980,10 @@
         <v>0</v>
       </c>
       <c r="U191" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" hidden="1">
       <c r="A192" s="2" t="inlineStr">
         <is>
           <t>2401010007</t>
@@ -16035,10 +16035,10 @@
         <v>0</v>
       </c>
       <c r="M192" s="6" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="N192" s="4" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="O192" s="7" t="inlineStr">
         <is>
@@ -16046,25 +16046,25 @@
         </is>
       </c>
       <c r="P192" s="3" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="Q192" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R192" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S192" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T192" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U192" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" hidden="1">
       <c r="A193" s="2" t="inlineStr">
         <is>
           <t>2401010008</t>
@@ -16116,10 +16116,10 @@
         <v>0</v>
       </c>
       <c r="M193" s="6" t="n">
-        <v>5.03</v>
+        <v>0</v>
       </c>
       <c r="N193" s="4" t="n">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="O193" s="7" t="inlineStr">
         <is>
@@ -16127,10 +16127,10 @@
         </is>
       </c>
       <c r="P193" s="3" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="Q193" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R193" s="2" t="n">
         <v>0</v>
@@ -16142,10 +16142,10 @@
         <v>0</v>
       </c>
       <c r="U193" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" hidden="1">
       <c r="A194" s="2" t="inlineStr">
         <is>
           <t>2401010009</t>
@@ -16194,13 +16194,13 @@
         <v>1</v>
       </c>
       <c r="L194" s="3" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M194" s="6" t="n">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="N194" s="4" t="n">
-        <v>4.02</v>
+        <v>0</v>
       </c>
       <c r="O194" s="7" t="inlineStr">
         <is>
@@ -16208,25 +16208,25 @@
         </is>
       </c>
       <c r="P194" s="3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q194" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R194" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S194" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T194" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U194" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" hidden="1">
       <c r="A195" s="2" t="inlineStr">
         <is>
           <t>2401010010</t>
@@ -16275,13 +16275,13 @@
         <v>3</v>
       </c>
       <c r="L195" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M195" s="6" t="n">
-        <v>21.78</v>
+        <v>0</v>
       </c>
       <c r="N195" s="4" t="n">
-        <v>13.07</v>
+        <v>0</v>
       </c>
       <c r="O195" s="7" t="inlineStr">
         <is>
@@ -16289,25 +16289,25 @@
         </is>
       </c>
       <c r="P195" s="3" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Q195" s="3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R195" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S195" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T195" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U195" s="8" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" hidden="1">
       <c r="A196" s="2" t="inlineStr">
         <is>
           <t>2401010012</t>
@@ -16359,10 +16359,10 @@
         <v>0</v>
       </c>
       <c r="M196" s="6" t="n">
-        <v>5.03</v>
+        <v>0</v>
       </c>
       <c r="N196" s="4" t="n">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="O196" s="7" t="inlineStr">
         <is>
@@ -16370,25 +16370,25 @@
         </is>
       </c>
       <c r="P196" s="3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Q196" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R196" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S196" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T196" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U196" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" hidden="1">
       <c r="A197" s="2" t="inlineStr">
         <is>
           <t>2401010016</t>
@@ -16437,13 +16437,13 @@
         <v>1</v>
       </c>
       <c r="L197" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M197" s="6" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="N197" s="4" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="O197" s="7" t="inlineStr">
         <is>
@@ -16451,25 +16451,25 @@
         </is>
       </c>
       <c r="P197" s="3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Q197" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R197" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S197" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T197" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U197" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" hidden="1">
       <c r="A198" s="2" t="inlineStr">
         <is>
           <t>2401010017</t>
@@ -16521,10 +16521,10 @@
         <v>0</v>
       </c>
       <c r="M198" s="6" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="N198" s="4" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="O198" s="7" t="inlineStr">
         <is>
@@ -16532,25 +16532,25 @@
         </is>
       </c>
       <c r="P198" s="3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q198" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R198" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S198" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T198" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U198" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" hidden="1">
       <c r="A199" s="2" t="inlineStr">
         <is>
           <t>2401010018</t>
@@ -16599,13 +16599,13 @@
         <v>5</v>
       </c>
       <c r="L199" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M199" s="6" t="n">
-        <v>33.5</v>
+        <v>0</v>
       </c>
       <c r="N199" s="4" t="n">
-        <v>20.1</v>
+        <v>0</v>
       </c>
       <c r="O199" s="7" t="inlineStr">
         <is>
@@ -16613,10 +16613,10 @@
         </is>
       </c>
       <c r="P199" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q199" s="3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R199" s="2" t="n">
         <v>0</v>
@@ -16628,10 +16628,10 @@
         <v>0</v>
       </c>
       <c r="U199" s="8" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" hidden="1">
       <c r="A200" s="2" t="inlineStr">
         <is>
           <t>2401010019</t>
@@ -16680,13 +16680,13 @@
         <v>4</v>
       </c>
       <c r="L200" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M200" s="6" t="n">
-        <v>28.48</v>
+        <v>0</v>
       </c>
       <c r="N200" s="4" t="n">
-        <v>17.09</v>
+        <v>0</v>
       </c>
       <c r="O200" s="7" t="inlineStr">
         <is>
@@ -16694,10 +16694,10 @@
         </is>
       </c>
       <c r="P200" s="3" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Q200" s="3" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="R200" s="2" t="n">
         <v>0</v>
@@ -16709,10 +16709,10 @@
         <v>0</v>
       </c>
       <c r="U200" s="8" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" hidden="1">
       <c r="A201" s="2" t="inlineStr">
         <is>
           <t>2401010020</t>
@@ -16761,13 +16761,13 @@
         <v>3</v>
       </c>
       <c r="L201" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M201" s="6" t="n">
-        <v>21.78</v>
+        <v>0</v>
       </c>
       <c r="N201" s="4" t="n">
-        <v>13.07</v>
+        <v>0</v>
       </c>
       <c r="O201" s="7" t="inlineStr">
         <is>
@@ -16775,25 +16775,25 @@
         </is>
       </c>
       <c r="P201" s="3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q201" s="3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R201" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S201" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T201" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U201" s="8" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" hidden="1">
       <c r="A202" s="2" t="inlineStr">
         <is>
           <t>2401010025</t>
@@ -16842,13 +16842,13 @@
         <v>1</v>
       </c>
       <c r="L202" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M202" s="6" t="n">
-        <v>5.03</v>
+        <v>0</v>
       </c>
       <c r="N202" s="4" t="n">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="O202" s="7" t="inlineStr">
         <is>
@@ -16856,25 +16856,25 @@
         </is>
       </c>
       <c r="P202" s="3" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q202" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R202" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S202" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T202" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U202" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" hidden="1">
       <c r="A203" s="2" t="inlineStr">
         <is>
           <t>2401010027</t>
@@ -16926,10 +16926,10 @@
         <v>0</v>
       </c>
       <c r="M203" s="6" t="n">
-        <v>5.03</v>
+        <v>0</v>
       </c>
       <c r="N203" s="4" t="n">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="O203" s="7" t="inlineStr">
         <is>
@@ -16937,22 +16937,22 @@
         </is>
       </c>
       <c r="P203" s="3" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="Q203" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R203" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S203" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T203" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U203" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -17007,10 +17007,10 @@
         <v>0</v>
       </c>
       <c r="M204" s="6" t="n">
-        <v>176.88</v>
+        <v>70.75</v>
       </c>
       <c r="N204" s="4" t="n">
-        <v>106.13</v>
+        <v>42.45</v>
       </c>
       <c r="O204" s="7" t="inlineStr">
         <is>
@@ -17018,10 +17018,10 @@
         </is>
       </c>
       <c r="P204" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q204" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R204" s="2" t="n">
         <v>0</v>
@@ -17033,7 +17033,7 @@
         <v>2</v>
       </c>
       <c r="U204" s="8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" hidden="1">
@@ -17085,7 +17085,7 @@
         <v>1</v>
       </c>
       <c r="L205" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M205" s="6" t="n">
         <v>0</v>
@@ -17117,7 +17117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" hidden="1">
       <c r="A206" s="2" t="inlineStr">
         <is>
           <t>2102020004</t>
@@ -17169,10 +17169,10 @@
         <v>0</v>
       </c>
       <c r="M206" s="6" t="n">
-        <v>90.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="N206" s="4" t="n">
-        <v>54.06</v>
+        <v>0</v>
       </c>
       <c r="O206" s="7" t="inlineStr">
         <is>
@@ -17180,10 +17180,10 @@
         </is>
       </c>
       <c r="P206" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q206" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R206" s="2" t="n">
         <v>0</v>
@@ -17195,7 +17195,7 @@
         <v>0</v>
       </c>
       <c r="U206" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -17360,7 +17360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" hidden="1">
       <c r="A209" s="2" t="inlineStr">
         <is>
           <t>2201050064</t>
@@ -17412,10 +17412,10 @@
         <v>0</v>
       </c>
       <c r="M209" s="6" t="n">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="N209" s="4" t="n">
-        <v>4.26</v>
+        <v>0</v>
       </c>
       <c r="O209" s="7" t="inlineStr">
         <is>
@@ -17423,10 +17423,10 @@
         </is>
       </c>
       <c r="P209" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q209" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R209" s="2" t="n">
         <v>0</v>
@@ -17438,10 +17438,10 @@
         <v>0</v>
       </c>
       <c r="U209" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" hidden="1">
       <c r="A210" s="2" t="inlineStr">
         <is>
           <t>2401010245</t>
@@ -17493,10 +17493,10 @@
         <v>0</v>
       </c>
       <c r="M210" s="6" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="N210" s="4" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="O210" s="7" t="inlineStr">
         <is>
@@ -17504,10 +17504,10 @@
         </is>
       </c>
       <c r="P210" s="3" t="n">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="Q210" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R210" s="2" t="n">
         <v>0</v>
@@ -17519,10 +17519,10 @@
         <v>0</v>
       </c>
       <c r="U210" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" hidden="1">
       <c r="A211" s="2" t="inlineStr">
         <is>
           <t>2101040004</t>
@@ -17571,13 +17571,13 @@
         <v>1</v>
       </c>
       <c r="L211" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M211" s="6" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="N211" s="4" t="n">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="O211" s="7" t="inlineStr">
         <is>
@@ -17585,10 +17585,10 @@
         </is>
       </c>
       <c r="P211" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q211" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R211" s="2" t="n">
         <v>0</v>
@@ -17600,7 +17600,7 @@
         <v>0</v>
       </c>
       <c r="U211" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" hidden="1">
@@ -17684,7 +17684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" hidden="1">
       <c r="A213" s="2" t="inlineStr">
         <is>
           <t>2703060028</t>
@@ -17733,13 +17733,13 @@
         <v>1</v>
       </c>
       <c r="L213" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M213" s="6" t="n">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="N213" s="4" t="n">
-        <v>5.34</v>
+        <v>0</v>
       </c>
       <c r="O213" s="7" t="inlineStr">
         <is>
@@ -17747,22 +17747,22 @@
         </is>
       </c>
       <c r="P213" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q213" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R213" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S213" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T213" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U213" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214"/>
@@ -17780,7 +17780,7 @@
         </is>
       </c>
       <c r="C216" s="5" t="n">
-        <v>590</v>
+        <v>213</v>
       </c>
     </row>
     <row r="217">
@@ -17801,7 +17801,7 @@
       </c>
       <c r="C218" s="5" t="inlineStr">
         <is>
-          <t>7234.44€</t>
+          <t>4074.45€</t>
         </is>
       </c>
     </row>
@@ -17900,7 +17900,7 @@
         </is>
       </c>
       <c r="C227" s="5" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
